--- a/Documents/Microcontroller_Specs.xlsx
+++ b/Documents/Microcontroller_Specs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -120,25 +120,6 @@
     <t>2)</t>
   </si>
   <si>
-    <t>Shared flash memory can be used in place of EEPROM</t>
-  </si>
-  <si>
-    <r>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>1.8 - 5.5</t>
   </si>
   <si>
@@ -186,12 +167,6 @@
     <t>80nA @3.6V</t>
   </si>
   <si>
-    <t>8x12b</t>
-  </si>
-  <si>
-    <t>Embedded configurable PLD blocks</t>
-  </si>
-  <si>
     <t>MSP430F5</t>
   </si>
   <si>
@@ -217,9 +192,6 @@
     <t>Only listing packages that can be soldered in the EPL: DIP, PDIP, TSSOP, QFN, VQFN - No BGAs</t>
   </si>
   <si>
-    <t>25MHz</t>
-  </si>
-  <si>
     <t>1.8 - 3.6</t>
   </si>
   <si>
@@ -259,13 +231,121 @@
     <t>Not Available</t>
   </si>
   <si>
-    <t>External Oscillator required to achieve 16MHz - limited to 8MHz otherwise</t>
-  </si>
-  <si>
     <t>Other Notes</t>
   </si>
   <si>
-    <t>External oscillator may be necessary to utilize USB controller - more researched required to confirm</t>
+    <t>External Oscillator required to achieve 16MHz and USB 2.0 - limited to 8MHz and USB 1.0 otherwise</t>
+  </si>
+  <si>
+    <t>Additional Costs</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>8-bit PIC</t>
+  </si>
+  <si>
+    <t>USB Bridge</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>512B</t>
+  </si>
+  <si>
+    <t>11x10b</t>
+  </si>
+  <si>
+    <t>24nA</t>
+  </si>
+  <si>
+    <t>20PDIP, 20SSOP,</t>
+  </si>
+  <si>
+    <t>20SOIC, 20QFN</t>
+  </si>
+  <si>
+    <t>PIC18</t>
+  </si>
+  <si>
+    <t>LF13K50</t>
+  </si>
+  <si>
+    <t>External EEPROM listed is Digikey Part Number 24AA32AT-I/OTCT-ND, Microchip Technologies 32KB EEPROM SOT23-5</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>USB Bridge listed Digikey part number CYC65213-32LTXI-ND, Cypress Semiconductor USB to UART Bridge 32QFN</t>
+  </si>
+  <si>
+    <t>PSoC3</t>
+  </si>
+  <si>
+    <t>8-bit 8051</t>
+  </si>
+  <si>
+    <t>Advanced USB programming interface available for USB</t>
+  </si>
+  <si>
+    <t>8kB</t>
+  </si>
+  <si>
+    <t>245PVI-150</t>
+  </si>
+  <si>
+    <t>50MHz</t>
+  </si>
+  <si>
+    <t>1.71 - 5.5</t>
+  </si>
+  <si>
+    <t>2.9mA @ 6 MHz, 3V</t>
+  </si>
+  <si>
+    <t>2.2uA @3V</t>
+  </si>
+  <si>
+    <t>All GPIOs x12b</t>
+  </si>
+  <si>
+    <t>All GPIOs x 12b</t>
+  </si>
+  <si>
+    <t>SSOP48</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>1MHz</t>
+  </si>
+  <si>
+    <t>25MHz Max</t>
+  </si>
+  <si>
+    <t>16 MHz Max</t>
+  </si>
+  <si>
+    <t>8 MHz</t>
+  </si>
+  <si>
+    <t>Oscillator listed is Digikey part number 887-1849-1-ND, TXC Corporation 48MHz Crystal</t>
+  </si>
+  <si>
+    <t>Easier programming interface</t>
+  </si>
+  <si>
+    <t>Popular parts with broad user base for assistance</t>
   </si>
 </sst>
 </file>
@@ -299,7 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -307,15 +386,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,11 +416,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -359,9 +468,52 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,31 +791,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X29"/>
+  <dimension ref="A2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,43 +834,65 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>510</v>
@@ -726,348 +903,673 @@
       <c r="E4" s="7">
         <v>1.9</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="H4" s="20">
+        <f>E4+G4+G5</f>
+        <v>2.6599999999999997</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="F5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H7" s="20">
+        <f>E7+G7+G8</f>
+        <v>5.2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="O7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5.52</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H10" s="20">
+        <f>E10+G10</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4200</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H13" s="20">
+        <f>E13+G13+G14</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1.88</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F15" s="14"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4200</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1.74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="H16" s="20">
+        <f>E16+G16</f>
+        <v>2.21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="Q17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1075,38 +1577,59 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1116,37 +1639,59 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1156,38 +1701,212 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="O8:X8"/>
-    <mergeCell ref="O6:X6"/>
-    <mergeCell ref="O4:X4"/>
+  <mergeCells count="34">
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="R5:AA5"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="R12:AA12"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="R22:AA22"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="R24:AA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Microcontroller_Specs.xlsx
+++ b/Documents/Microcontroller_Specs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -276,15 +276,9 @@
     <t>LF13K50</t>
   </si>
   <si>
-    <t>External EEPROM listed is Digikey Part Number 24AA32AT-I/OTCT-ND, Microchip Technologies 32KB EEPROM SOT23-5</t>
-  </si>
-  <si>
     <t>5)</t>
   </si>
   <si>
-    <t>USB Bridge listed Digikey part number CYC65213-32LTXI-ND, Cypress Semiconductor USB to UART Bridge 32QFN</t>
-  </si>
-  <si>
     <t>PSoC3</t>
   </si>
   <si>
@@ -339,13 +333,52 @@
     <t>8 MHz</t>
   </si>
   <si>
-    <t>Oscillator listed is Digikey part number 887-1849-1-ND, TXC Corporation 48MHz Crystal</t>
-  </si>
-  <si>
-    <t>Easier programming interface</t>
-  </si>
-  <si>
     <t>Popular parts with broad user base for assistance</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Onboard RTC?</t>
+  </si>
+  <si>
+    <t>(Component)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>Very low-level programming required</t>
+  </si>
+  <si>
+    <t>Combination low/high level programming</t>
+  </si>
+  <si>
+    <t>Low-level programming required</t>
+  </si>
+  <si>
+    <t>Graphical programming interface</t>
+  </si>
+  <si>
+    <t>External EEPROM listed is Digikey Part Number 24AA32AT-I/OTCT-ND, Microchip Technologies 32KB EEPROM SOT23-5 (add $0.50 to PCB cost)</t>
+  </si>
+  <si>
+    <t>USB Bridge listed Digikey part number CY7C65213-32LTXI-ND, Cypress Semiconductor USB to UART Bridge 32QFN (Add $0.25 to PCB cost)</t>
+  </si>
+  <si>
+    <t>Oscillator listed is Digikey part number 887-1949-1-ND, TXC Corporation 48MHz Crystal (Add $0.30 to PCB cost)</t>
+  </si>
+  <si>
+    <t>Real-time clock is Digikey part number MCP7940M-I/SN-ND, Microchip Technologies RTC I2C, 64B SRAM, 8-SOIC (Add $0.30 to PCB cost)</t>
+  </si>
+  <si>
+    <t>PCB Costs</t>
   </si>
 </sst>
 </file>
@@ -399,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -440,12 +473,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -471,12 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -495,19 +550,34 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -791,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA34"/>
+  <dimension ref="A2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,19 +876,21 @@
     <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,60 +906,67 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="19"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F3" s="10"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+    </row>
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -903,73 +982,76 @@
       <c r="E4" s="7">
         <v>1.9</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0.38</v>
-      </c>
-      <c r="H4" s="20">
-        <f>E4+G4+G5</f>
-        <v>2.6599999999999997</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>83</v>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="15">
+        <f>E4+SUM(G4:H7)</f>
+        <v>3.71</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+    </row>
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="13" t="s">
-        <v>82</v>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="13">
         <v>0.38</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="H5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -977,27 +1059,37 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1006,129 +1098,136 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+    </row>
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="H7" s="20">
-        <f>E7+G7+G8</f>
-        <v>5.2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="15">
+        <f>E8+SUM(G8:H11)</f>
+        <v>7.25</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="T8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1136,93 +1235,74 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="7">
-        <v>5.52</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7">
         <v>0.38</v>
       </c>
-      <c r="H10" s="20">
-        <f>E10+G10</f>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1231,27 +1311,29 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1260,8 +1342,8 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -1270,238 +1352,330 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5.52</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="15">
+        <f>E14+SUM(G14:H16)</f>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C18" s="6">
         <v>4200</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E18" s="7">
         <v>1.74</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="15">
+        <f>E18+SUM(G18:H21)</f>
+        <v>6</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G19" s="7">
         <v>0.38</v>
       </c>
-      <c r="H13" s="20">
-        <f>E13+G13+G14</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="14" t="s">
+      <c r="H19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+    </row>
+    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G20" s="13">
         <v>1.88</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1.83</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.38</v>
-      </c>
-      <c r="H16" s="20">
-        <f>E16+G16</f>
-        <v>2.21</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F17" s="5"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="Q17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="H20" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="16"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
@@ -1510,272 +1684,239 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="16"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="15">
+        <f>E23+SUM(G23:H25)</f>
+        <v>3.96</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+    </row>
+    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="S24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="13"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="8"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1787,46 +1928,61 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="8"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+    </row>
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="8"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1838,75 +1994,321 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+    </row>
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="8"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+    </row>
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B33:M33"/>
+  <mergeCells count="39">
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B42:N42"/>
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T6:AC6"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T16:AC16"/>
+    <mergeCell ref="T3:AC3"/>
+    <mergeCell ref="T7:AC7"/>
+    <mergeCell ref="T17:AC17"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="B40:N40"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="R5:AA5"/>
-    <mergeCell ref="R8:AA8"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="R12:AA12"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="T5:AC5"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="T13:AC13"/>
+    <mergeCell ref="T14:AC14"/>
+    <mergeCell ref="T15:AC15"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T8:AC8"/>
+    <mergeCell ref="T4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
